--- a/yenikayit.xlsx
+++ b/yenikayit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:BL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,31 +435,193 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="2">
@@ -469,31 +631,193 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30</v>
+      </c>
+      <c r="M2" t="n">
+        <v>35</v>
+      </c>
+      <c r="N2" t="n">
+        <v>36</v>
+      </c>
+      <c r="O2" t="n">
+        <v>38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>43</v>
+      </c>
+      <c r="R2" t="n">
+        <v>43</v>
+      </c>
+      <c r="S2" t="n">
+        <v>43</v>
+      </c>
+      <c r="T2" t="n">
+        <v>44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>46</v>
+      </c>
+      <c r="W2" t="n">
+        <v>47</v>
+      </c>
+      <c r="X2" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>83</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>91</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>96</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>97</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>102</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>105</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>106</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>108</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>109</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>115</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>119</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>122</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>123</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>125</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>132</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>133</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>135</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>135</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>141</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>141</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>149</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>149</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>150</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>152</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -503,31 +827,193 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.2</v>
+        <v>61.85</v>
       </c>
       <c r="C3" t="n">
-        <v>42.72</v>
+        <v>55.9</v>
       </c>
       <c r="D3" t="n">
+        <v>110.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>71.06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="J3" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>80.62</v>
+      </c>
+      <c r="L3" t="n">
+        <v>75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="N3" t="n">
+        <v>80.62</v>
+      </c>
+      <c r="O3" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="P3" t="n">
+        <v>73.81999999999999</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="R3" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>87.45999999999999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>64.03</v>
+      </c>
+      <c r="X3" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>60.83</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="AB3" t="n">
         <v>61.85</v>
       </c>
-      <c r="E3" t="n">
+      <c r="AC3" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>112.36</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>62.65</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>62.65</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>71.06</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>62.65</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80.62</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>70.18000000000001</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>80.62</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>61.85</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>76.31999999999999</v>
+      </c>
+      <c r="BA3" t="n">
         <v>55.9</v>
       </c>
-      <c r="F3" t="n">
-        <v>110.11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>101.24</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="BB3" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>60.42</v>
+      </c>
+      <c r="BH3" t="n">
         <v>58.31</v>
       </c>
-      <c r="I3" t="n">
-        <v>45.28</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50.25</v>
+      <c r="BI3" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>77.62</v>
       </c>
     </row>
     <row r="4">
@@ -538,47 +1024,317 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>23.69</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22.06</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.70</t>
+          <t>120.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>59.72</t>
+          <t>102.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>214.61</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>189.26</t>
+          <t>56.20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>66.60</t>
+          <t>42.13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>29.36</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>43.57</t>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>47.65</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>124.72</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>40.36</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>52.64</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>55.24</t>
         </is>
       </c>
     </row>
@@ -589,7 +1345,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3136</v>
+        <v>1508.5</v>
       </c>
       <c r="C5" t="n">
         <v>1508.5</v>
@@ -601,19 +1357,181 @@
         <v>6440</v>
       </c>
       <c r="F5" t="n">
-        <v>6440</v>
+        <v>1508.5</v>
       </c>
       <c r="G5" t="n">
         <v>6440</v>
       </c>
       <c r="H5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="K5" t="n">
         <v>6440</v>
       </c>
-      <c r="I5" t="n">
-        <v>1508.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3136</v>
+      <c r="L5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>6440</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +1541,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>10</v>
@@ -635,19 +1553,181 @@
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>50</v>
       </c>
       <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
         <v>50</v>
       </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30</v>
+      <c r="L6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" t="n">
+        <v>50</v>
+      </c>
+      <c r="O6" t="n">
+        <v>50</v>
+      </c>
+      <c r="P6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
+        <v>50</v>
+      </c>
+      <c r="U6" t="n">
+        <v>30</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>30</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>30</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/yenikayit.xlsx
+++ b/yenikayit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,28 +435,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -466,28 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43</v>
-      </c>
-      <c r="F2" t="n">
-        <v>44</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H2" t="n">
-        <v>56</v>
-      </c>
-      <c r="I2" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -497,28 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.84999999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>71.59</v>
-      </c>
-      <c r="E3" t="n">
-        <v>70.18000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>82.76000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="I3" t="n">
-        <v>69.64</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="4">
@@ -529,42 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13.06</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>40.28</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>18.04</t>
+          <t>24.23</t>
         </is>
       </c>
     </row>
@@ -575,27 +477,6 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3136</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1508.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1508.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1508.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1508.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3136</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1508.5</v>
-      </c>
-      <c r="I5" t="n">
         <v>1508.5</v>
       </c>
     </row>
@@ -606,27 +487,6 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="n">
         <v>10</v>
       </c>
     </row>
